--- a/texts/2.2.xlsx
+++ b/texts/2.2.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" tabRatio="881" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="6190" tabRatio="881" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="図2.2" sheetId="2" r:id="rId1"/>
     <sheet name="図2.3" sheetId="3" r:id="rId2"/>
     <sheet name="図2.4" sheetId="5" r:id="rId3"/>
+    <sheet name="cdrの動作" sheetId="6" r:id="rId4"/>
+    <sheet name="consの動作1" sheetId="7" r:id="rId5"/>
+    <sheet name="consの動作2" sheetId="8" r:id="rId6"/>
+    <sheet name="list-map" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,12 +56,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -66,9 +85,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4611,6 +4636,8802 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250950" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1860550" y="542925"/>
+          <a:ext cx="368300" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="787400" y="542925"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24572</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430972</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>602422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2635250" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="977900"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441450" y="571500"/>
+          <a:ext cx="0" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2432050" y="533400"/>
+          <a:ext cx="6350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="549275"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4508500" y="565150"/>
+          <a:ext cx="6350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="強調線吹き出し 2 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2749550" y="3549650"/>
+          <a:ext cx="1720850" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17398"/>
+            <a:gd name="adj2" fmla="val -13528"/>
+            <a:gd name="adj3" fmla="val -43241"/>
+            <a:gd name="adj4" fmla="val -43222"/>
+            <a:gd name="adj5" fmla="val -123267"/>
+            <a:gd name="adj6" fmla="val -42571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ペアの後尾は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リストの体裁になっているので、そのままリストになっています。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4718050" y="349250"/>
+          <a:ext cx="374650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3911600" y="542925"/>
+          <a:ext cx="387350" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="577850"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="787400" y="542925"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24572</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430972</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>602422</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2635250" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250950" y="2368550"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2432050" y="533400"/>
+          <a:ext cx="6350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="549275"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="角丸四角形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4508500" y="565150"/>
+          <a:ext cx="6350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4718050" y="349250"/>
+          <a:ext cx="374650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3911600" y="542925"/>
+          <a:ext cx="387350" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="577850"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1771650" y="2530475"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160709</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357472</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="下矢印 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20493711">
+          <a:off x="1989509" y="812165"/>
+          <a:ext cx="196763" cy="1416050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31395"/>
+            <a:gd name="adj2" fmla="val 117742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1922578" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="1555750"/>
+          <a:ext cx="1922578" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cdr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>によるペアの後尾取り出し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="下矢印 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1301750" y="1377950"/>
+          <a:ext cx="222250" cy="844550"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44097"/>
+            <a:gd name="adj2" fmla="val 80637"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1111250" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1371600"/>
+          <a:ext cx="1111250" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>car</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>によるペアの先頭取り出し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="3232150"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>411922</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1835150" y="3238500"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602836</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="3441701"/>
+          <a:ext cx="393286" cy="527049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="965200" y="3438525"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430972</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>602422</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2635250" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="3873500"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="3467100"/>
+          <a:ext cx="0" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2432050" y="533400"/>
+          <a:ext cx="6350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="549275"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4508500" y="565150"/>
+          <a:ext cx="6350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4718050" y="349250"/>
+          <a:ext cx="374650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3911600" y="542925"/>
+          <a:ext cx="387350" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="577850"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="下矢印 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1911350" y="1346200"/>
+          <a:ext cx="190500" cy="1212850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44097"/>
+            <a:gd name="adj2" fmla="val 80637"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="787400" y="5330825"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24572</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="5130800"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430972</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="5130800"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="5124450"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>602422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2635250" y="5124450"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250950" y="5175250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="5772150"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="5772150"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2432050" y="5321300"/>
+          <a:ext cx="6350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="5337175"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321050" y="5772150"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="5124450"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="5130800"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4508500" y="5353050"/>
+          <a:ext cx="6350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4718050" y="5137150"/>
+          <a:ext cx="374650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3911600" y="5330825"/>
+          <a:ext cx="387350" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="5365750"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1771650" y="5337175"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905000" cy="447943"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="1625600"/>
+          <a:ext cx="1905000" cy="447943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cons</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>による結合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(cons 4 (list 1 2 3))</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="強調線吹き出し 2 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="2368550"/>
+          <a:ext cx="2165350" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17398"/>
+            <a:gd name="adj2" fmla="val -13528"/>
+            <a:gd name="adj3" fmla="val 16109"/>
+            <a:gd name="adj4" fmla="val -71852"/>
+            <a:gd name="adj5" fmla="val 66164"/>
+            <a:gd name="adj6" fmla="val -95949"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cons</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 1 2 3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をペアにすると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(4 1 2 3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>といリストになります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5702300" cy="1174750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2235200" y="4610100"/>
+          <a:ext cx="5702300" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>定義から考えても以下のようにリストになります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(list 1 2 3)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>= (cons 1 (cons 2 (cons 3 nil)))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>なので</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(cons 4 (list 1 2 3)) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>= (cons 4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(cons 1 (cons 2 (cons 3 nil))))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                  = (list 4 1 2 3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189672</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="2743200"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596072</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="2749550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602836</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="2990850"/>
+          <a:ext cx="5936" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1758950" y="2949575"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="3479800"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430972</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="3479800"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="3473450"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>602422</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2635250" y="3473450"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3289300" y="2787650"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="4121150"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832100" y="2946400"/>
+          <a:ext cx="457200" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="4121150"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2432050" y="3670300"/>
+          <a:ext cx="6350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="3686175"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321050" y="4121150"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="3473450"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="3479800"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4508500" y="3702050"/>
+          <a:ext cx="6350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4718050" y="3486150"/>
+          <a:ext cx="374650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3911600" y="3679825"/>
+          <a:ext cx="387350" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="3714750"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="下矢印 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1911350" y="1346200"/>
+          <a:ext cx="190500" cy="1212850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44097"/>
+            <a:gd name="adj2" fmla="val 80637"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5416550" y="530225"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24572</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430972</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196022</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>602422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2635250" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="374650"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4337050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2432050" y="533400"/>
+          <a:ext cx="6350" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="549275"/>
+          <a:ext cx="431800" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3321050" y="984250"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="336550"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234122</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="342900"/>
+          <a:ext cx="405572" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4508500" y="565150"/>
+          <a:ext cx="6350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4718050" y="349250"/>
+          <a:ext cx="374650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3911600" y="542925"/>
+          <a:ext cx="387350" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="577850"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1771650" y="549275"/>
+          <a:ext cx="463550" cy="3176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905000" cy="447943"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2139950" y="1657350"/>
+          <a:ext cx="1905000" cy="447943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>cons</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>による結合</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(cons (list 1 2 3) 4)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="強調線吹き出し 2 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5473700" y="2038350"/>
+          <a:ext cx="2165350" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17398"/>
+            <a:gd name="adj2" fmla="val -13528"/>
+            <a:gd name="adj3" fmla="val 16109"/>
+            <a:gd name="adj4" fmla="val -71852"/>
+            <a:gd name="adj5" fmla="val 68603"/>
+            <a:gd name="adj6" fmla="val -123809"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>この形でペアにすると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リストの体裁（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cons</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の入れ子）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にはならないので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リストにはなりません。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1720850" y="876300"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="876300"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470150" y="882650"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2863850" y="889000"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3244850" y="882650"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875" cap="flat">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="強調線吹き出し 2 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4711700" y="374650"/>
+          <a:ext cx="1460500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17398"/>
+            <a:gd name="adj2" fmla="val -13528"/>
+            <a:gd name="adj3" fmla="val 15447"/>
+            <a:gd name="adj4" fmla="val -44873"/>
+            <a:gd name="adj5" fmla="val 60855"/>
+            <a:gd name="adj6" fmla="val -83641"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力のリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="強調線吹き出し 2 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="1511300"/>
+          <a:ext cx="1460500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17398"/>
+            <a:gd name="adj2" fmla="val -13528"/>
+            <a:gd name="adj3" fmla="val 15447"/>
+            <a:gd name="adj4" fmla="val -44873"/>
+            <a:gd name="adj5" fmla="val 60855"/>
+            <a:gd name="adj6" fmla="val -83641"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出力のリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="強調線吹き出し 2 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5835650" y="831850"/>
+          <a:ext cx="2730500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17398"/>
+            <a:gd name="adj2" fmla="val -13528"/>
+            <a:gd name="adj3" fmla="val 15447"/>
+            <a:gd name="adj4" fmla="val -44873"/>
+            <a:gd name="adj5" fmla="val 37522"/>
+            <a:gd name="adj6" fmla="val -81012"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力の各数値（要素）に対して、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>×10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の演算を施し、出力のリストとして出力します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="971550"/>
+          <a:ext cx="495300" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="984250"/>
+          <a:ext cx="495300" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="996950"/>
+          <a:ext cx="495300" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2787650" y="1003300"/>
+          <a:ext cx="495300" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="1003300"/>
+          <a:ext cx="495300" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4911,7 +13732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4921,4 +13742,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>